--- a/Tests Data/Kyocera KC85TS/Single diode model/STC/R+L load/Single-diode emulator - R+L - Kyocera KC85TS (STC).xlsx
+++ b/Tests Data/Kyocera KC85TS/Single diode model/STC/R+L load/Single-diode emulator - R+L - Kyocera KC85TS (STC).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabriel\Desktop\Stage\Émulateur\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\Stage\Emulator\Tests Data\Kyocera KC85TS\Single diode model\STC\R+L load\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03375393-9B62-4FD7-AF44-0E8B887438C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBFA7825-AC26-4AFF-8F16-802D94540933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{217CCB4B-160F-4504-987F-9C10DFEEC66E}"/>
+    <workbookView xWindow="10140" yWindow="0" windowWidth="10455" windowHeight="10905" xr2:uid="{217CCB4B-160F-4504-987F-9C10DFEEC66E}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -137,7 +137,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Accent6" xfId="1" builtinId="49"/>
+    <cellStyle name="Ênfase6" xfId="1" builtinId="49"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -154,7 +154,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -470,13 +470,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5B8D570-ED79-418B-A1D1-0F000D275672}">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A15" sqref="A15:N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -524,602 +524,652 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B2">
-        <v>1.4</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
         <f>A2*B2</f>
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D2">
-        <v>11.39</v>
+        <v>10.6</v>
       </c>
       <c r="E2">
-        <v>4.97</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="F2">
         <f t="shared" ref="F2" si="0">D2*E2</f>
-        <v>56.6083</v>
+        <v>53.211999999999996</v>
       </c>
       <c r="G2">
         <f t="shared" ref="G2" si="1">D2/E2</f>
-        <v>2.2917505030181089</v>
+        <v>2.1115537848605577</v>
       </c>
       <c r="H2">
-        <v>23.78</v>
+        <v>23.090778</v>
       </c>
       <c r="I2">
-        <v>10.09</v>
+        <v>11.210976</v>
       </c>
       <c r="J2">
-        <v>12.56</v>
+        <v>10.992171000000001</v>
       </c>
       <c r="K2">
-        <v>5.33</v>
+        <v>5.3368909999999996</v>
       </c>
       <c r="L2">
         <f t="shared" ref="L2" si="2">J2/K2</f>
-        <v>2.356472795497186</v>
+        <v>2.0596581417907918</v>
       </c>
       <c r="M2">
         <f t="shared" ref="M2" si="3">(ABS(L2-G2)/G2)*100</f>
-        <v>2.8241421740211878</v>
+        <v>2.4576993227379704</v>
       </c>
       <c r="N2">
         <f>(F4/C4)*100</f>
-        <v>86.027368421052628</v>
+        <v>89.045747126436794</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B3">
-        <v>1.57</v>
+        <v>1.25</v>
       </c>
       <c r="C3">
         <f>A3*B3</f>
-        <v>78.5</v>
+        <v>75</v>
       </c>
       <c r="D3">
-        <v>13.3</v>
+        <v>12.78</v>
       </c>
       <c r="E3">
-        <v>5.0599999999999996</v>
+        <v>5.07</v>
       </c>
       <c r="F3">
-        <f>D3*E3</f>
-        <v>67.298000000000002</v>
+        <f t="shared" ref="F3:F8" si="4">D3*E3</f>
+        <v>64.794600000000003</v>
       </c>
       <c r="G3">
-        <f>D3/E3</f>
-        <v>2.6284584980237158</v>
+        <f t="shared" ref="G3:G8" si="5">D3/E3</f>
+        <v>2.5207100591715972</v>
       </c>
       <c r="H3">
-        <v>23.81</v>
+        <v>22.955368</v>
       </c>
       <c r="I3">
-        <v>8.76</v>
+        <v>9.2755519999999994</v>
       </c>
       <c r="J3">
-        <v>14.44</v>
+        <v>13.190496</v>
       </c>
       <c r="K3">
-        <v>5.31</v>
+        <v>5.3298699999999997</v>
       </c>
       <c r="L3">
-        <f>J3/K3</f>
-        <v>2.71939736346516</v>
+        <f t="shared" ref="L3:L8" si="6">J3/K3</f>
+        <v>2.4748250895425219</v>
       </c>
       <c r="M3">
-        <f>(ABS(L3-G3)/G3)*100</f>
-        <v>3.459779391982766</v>
+        <f t="shared" ref="M3:M8" si="7">(ABS(L3-G3)/G3)*100</f>
+        <v>1.8203192176792782</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N10" si="4">(F3/C3)*100</f>
-        <v>85.729936305732494</v>
+        <f t="shared" ref="N3:N8" si="8">(F3/C3)*100</f>
+        <v>86.392800000000008</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B4">
-        <v>1.71</v>
+        <v>1.45</v>
       </c>
       <c r="C4">
         <f>A4*B4</f>
-        <v>85.5</v>
+        <v>87</v>
       </c>
       <c r="D4">
-        <v>14.31</v>
+        <v>15.22</v>
       </c>
       <c r="E4">
-        <v>5.14</v>
+        <v>5.09</v>
       </c>
       <c r="F4">
-        <f>D4*E4</f>
-        <v>73.553399999999996</v>
+        <f t="shared" si="4"/>
+        <v>77.469800000000006</v>
       </c>
       <c r="G4">
-        <f>D4/E4</f>
-        <v>2.7840466926070042</v>
+        <f t="shared" si="5"/>
+        <v>2.9901768172888019</v>
       </c>
       <c r="H4">
-        <v>23.82</v>
+        <v>22.999068999999999</v>
       </c>
       <c r="I4">
-        <v>8.11</v>
+        <v>7.7551829999999997</v>
       </c>
       <c r="J4">
-        <v>15.51</v>
+        <v>15.65108</v>
       </c>
       <c r="K4">
-        <v>5.28</v>
+        <v>5.2774739999999998</v>
       </c>
       <c r="L4">
-        <f>J4/K4</f>
-        <v>2.9375</v>
+        <f t="shared" si="6"/>
+        <v>2.9656384853814535</v>
       </c>
       <c r="M4">
-        <f>(ABS(L4-G4)/G4)*100</f>
-        <v>5.5118798043326223</v>
+        <f t="shared" si="7"/>
+        <v>0.82063146786073293</v>
       </c>
       <c r="N4">
-        <f t="shared" si="4"/>
-        <v>86.027368421052628</v>
+        <f t="shared" si="8"/>
+        <v>89.045747126436794</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B5">
-        <v>1.76</v>
+        <v>1.47</v>
       </c>
       <c r="C5">
         <f>A5*B5</f>
-        <v>88</v>
+        <v>88.2</v>
       </c>
       <c r="D5">
-        <v>14.91</v>
+        <v>16.170000000000002</v>
       </c>
       <c r="E5">
-        <v>5.07</v>
+        <v>4.88</v>
       </c>
       <c r="F5">
-        <f>D5*E5</f>
-        <v>75.593699999999998</v>
+        <f t="shared" si="4"/>
+        <v>78.909600000000012</v>
       </c>
       <c r="G5">
-        <f>D5/E5</f>
-        <v>2.9408284023668636</v>
+        <f t="shared" si="5"/>
+        <v>3.3135245901639347</v>
       </c>
       <c r="H5">
-        <v>23.84</v>
+        <v>22.993300999999999</v>
       </c>
       <c r="I5">
-        <v>7.71</v>
+        <v>7.1348390000000004</v>
       </c>
       <c r="J5">
-        <v>16.11</v>
+        <v>16.572635999999999</v>
       </c>
       <c r="K5">
-        <v>5.21</v>
+        <v>5.1425010000000002</v>
       </c>
       <c r="L5">
-        <f>J5/K5</f>
-        <v>3.092130518234165</v>
+        <f t="shared" si="6"/>
+        <v>3.222680170601814</v>
       </c>
       <c r="M5">
-        <f>(ABS(L5-G5)/G5)*100</f>
-        <v>5.1448808011215155</v>
+        <f t="shared" si="7"/>
+        <v>2.7416250306935632</v>
       </c>
       <c r="N5">
-        <f t="shared" si="4"/>
-        <v>85.901931818181822</v>
+        <f t="shared" si="8"/>
+        <v>89.466666666666669</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B6">
-        <v>1.82</v>
+        <v>1.5</v>
       </c>
       <c r="C6">
-        <f t="shared" ref="C6:C10" si="5">A6*B6</f>
-        <v>91</v>
+        <f t="shared" ref="C6:C8" si="9">A6*B6</f>
+        <v>90</v>
       </c>
       <c r="D6">
-        <v>16.23</v>
+        <v>17.010000000000002</v>
       </c>
       <c r="E6" s="3">
-        <v>4.92</v>
+        <v>4.71</v>
       </c>
       <c r="F6">
-        <f>D6*E6</f>
-        <v>79.851600000000005</v>
+        <f t="shared" si="4"/>
+        <v>80.117100000000008</v>
       </c>
       <c r="G6">
-        <f>D6/E6</f>
-        <v>3.2987804878048781</v>
+        <f t="shared" si="5"/>
+        <v>3.6114649681528666</v>
       </c>
       <c r="H6">
-        <v>23.94</v>
+        <v>23.009609000000001</v>
       </c>
       <c r="I6">
-        <v>6.91</v>
+        <v>6.6117559999999997</v>
       </c>
       <c r="J6">
-        <v>17.39</v>
+        <v>17.421389000000001</v>
       </c>
       <c r="K6">
-        <v>5.0209999999999999</v>
+        <v>5.0059940000000003</v>
       </c>
       <c r="L6">
-        <f>J6/K6</f>
-        <v>3.4634534953196576</v>
+        <f t="shared" si="6"/>
+        <v>3.4801058491080892</v>
       </c>
       <c r="M6">
-        <f>(ABS(L6-G6)/G6)*100</f>
-        <v>4.9919359024813019</v>
+        <f t="shared" si="7"/>
+        <v>3.6372807213456868</v>
       </c>
       <c r="N6">
-        <f t="shared" si="4"/>
-        <v>87.749010989010984</v>
+        <f t="shared" si="8"/>
+        <v>89.019000000000005</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B7">
-        <v>1.73</v>
+        <v>1.49</v>
       </c>
       <c r="C7">
+        <f t="shared" si="9"/>
+        <v>89.4</v>
+      </c>
+      <c r="D7">
+        <v>17.61</v>
+      </c>
+      <c r="E7">
+        <v>4.55</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="4"/>
+        <v>80.125499999999988</v>
+      </c>
+      <c r="G7">
         <f t="shared" si="5"/>
-        <v>86.5</v>
-      </c>
-      <c r="D7">
-        <v>17.07</v>
-      </c>
-      <c r="E7">
-        <v>4.46</v>
-      </c>
-      <c r="F7">
-        <f>D7*E7</f>
-        <v>76.132199999999997</v>
-      </c>
-      <c r="G7">
-        <f>D7/E7</f>
-        <v>3.8273542600896864</v>
+        <v>3.8703296703296703</v>
       </c>
       <c r="H7">
-        <v>23.85</v>
+        <v>23.010909999999999</v>
       </c>
       <c r="I7">
-        <v>5.99</v>
+        <v>5.9020450000000002</v>
       </c>
       <c r="J7">
-        <v>18.100000000000001</v>
+        <v>18.000225</v>
       </c>
       <c r="K7">
-        <v>4.55</v>
+        <v>4.61686</v>
       </c>
       <c r="L7">
-        <f>J7/K7</f>
-        <v>3.9780219780219785</v>
+        <f t="shared" si="6"/>
+        <v>3.8988024328223081</v>
       </c>
       <c r="M7">
-        <f>(ABS(L7-G7)/G7)*100</f>
-        <v>3.9366023548800406</v>
+        <f t="shared" si="7"/>
+        <v>0.73566762828791454</v>
       </c>
       <c r="N7">
-        <f t="shared" si="4"/>
-        <v>88.014104046242764</v>
+        <f t="shared" si="8"/>
+        <v>89.625838926174467</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B8">
-        <v>1.56</v>
+        <v>1.36</v>
       </c>
       <c r="C8">
+        <f t="shared" si="9"/>
+        <v>81.600000000000009</v>
+      </c>
+      <c r="D8">
+        <v>18.079999999999998</v>
+      </c>
+      <c r="E8">
+        <v>4.08</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="4"/>
+        <v>73.76639999999999</v>
+      </c>
+      <c r="G8">
         <f t="shared" si="5"/>
-        <v>78</v>
-      </c>
-      <c r="D8">
-        <v>18.11</v>
-      </c>
-      <c r="E8">
-        <v>3.76</v>
-      </c>
-      <c r="F8">
-        <f>D8*E8</f>
-        <v>68.093599999999995</v>
-      </c>
-      <c r="G8">
-        <f>D8/E8</f>
-        <v>4.8164893617021276</v>
+        <v>4.4313725490196072</v>
       </c>
       <c r="H8">
-        <v>23.86</v>
+        <v>23.018249999999998</v>
       </c>
       <c r="I8">
-        <v>4.97</v>
+        <v>5.3839579999999998</v>
       </c>
       <c r="J8">
-        <v>18.98</v>
+        <v>18.448944000000001</v>
       </c>
       <c r="K8">
-        <v>3.95</v>
+        <v>4.3151999999999999</v>
       </c>
       <c r="L8">
-        <f>J8/K8</f>
-        <v>4.8050632911392404</v>
+        <f t="shared" si="6"/>
+        <v>4.2753392658509455</v>
       </c>
       <c r="M8">
-        <f>(ABS(L8-G8)/G8)*100</f>
-        <v>0.23722819059335201</v>
+        <f t="shared" si="7"/>
+        <v>3.521105062655641</v>
       </c>
       <c r="N8">
-        <f t="shared" si="4"/>
-        <v>87.299487179487173</v>
+        <f t="shared" si="8"/>
+        <v>90.399999999999977</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B9">
-        <v>1.5</v>
+        <v>1.28</v>
       </c>
       <c r="C9">
-        <f t="shared" si="5"/>
-        <v>75</v>
+        <f t="shared" ref="C9" si="10">A9*B9</f>
+        <v>76.8</v>
       </c>
       <c r="D9">
-        <v>18.7</v>
+        <v>18.649999999999999</v>
       </c>
       <c r="E9">
-        <v>3.57</v>
+        <v>3.69</v>
       </c>
       <c r="F9">
-        <f>D9*E9</f>
-        <v>66.759</v>
+        <f t="shared" ref="F9" si="11">D9*E9</f>
+        <v>68.8185</v>
       </c>
       <c r="G9">
-        <f>D9/E9</f>
-        <v>5.2380952380952381</v>
+        <f t="shared" ref="G9" si="12">D9/E9</f>
+        <v>5.0542005420054199</v>
       </c>
       <c r="H9">
-        <v>23.86</v>
+        <v>23.015212999999999</v>
       </c>
       <c r="I9">
-        <v>4.38</v>
+        <v>4.8129980000000003</v>
       </c>
       <c r="J9">
-        <v>19.53</v>
+        <v>18.967569000000001</v>
       </c>
       <c r="K9">
-        <v>3.58</v>
+        <v>3.966545</v>
       </c>
       <c r="L9">
-        <f>J9/K9</f>
-        <v>5.4553072625698329</v>
+        <f t="shared" ref="L9" si="13">J9/K9</f>
+        <v>4.781886755350059</v>
       </c>
       <c r="M9">
-        <f>(ABS(L9-G9)/G9)*100</f>
-        <v>4.1467750126968088</v>
+        <f t="shared" ref="M9" si="14">(ABS(L9-G9)/G9)*100</f>
+        <v>5.3878706314116984</v>
       </c>
       <c r="N9">
-        <f t="shared" si="4"/>
-        <v>89.012</v>
+        <f t="shared" ref="N9" si="15">(F9/C9)*100</f>
+        <v>89.607421875</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B10">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="C10">
-        <f t="shared" si="5"/>
-        <v>58.5</v>
+        <f>A10*B10</f>
+        <v>72.599999999999994</v>
       </c>
       <c r="D10">
-        <v>19.43</v>
+        <v>19.149999999999999</v>
       </c>
       <c r="E10">
-        <v>2.68</v>
+        <v>3.41</v>
       </c>
       <c r="F10">
         <f>D10*E10</f>
-        <v>52.072400000000002</v>
+        <v>65.301500000000004</v>
       </c>
       <c r="G10">
         <f>D10/E10</f>
-        <v>7.2499999999999991</v>
+        <v>5.6158357771260992</v>
       </c>
       <c r="H10">
-        <v>23.87</v>
+        <v>23.016911</v>
       </c>
       <c r="I10">
-        <v>3.34</v>
+        <v>4.2878959999999999</v>
       </c>
       <c r="J10">
-        <v>20.079999999999998</v>
+        <v>19.471916</v>
       </c>
       <c r="K10">
-        <v>2.81</v>
+        <v>3.627488</v>
       </c>
       <c r="L10">
         <f>J10/K10</f>
-        <v>7.1459074733096077</v>
+        <v>5.3678788186204889</v>
       </c>
       <c r="M10">
         <f>(ABS(L10-G10)/G10)*100</f>
-        <v>1.4357589888329847</v>
+        <v>4.4153171201260113</v>
       </c>
       <c r="N10">
-        <f t="shared" si="4"/>
-        <v>89.012649572649565</v>
+        <f>(F10/C10)*100</f>
+        <v>89.946969696969717</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B11">
-        <v>0.88</v>
+        <v>1.06</v>
       </c>
       <c r="C11">
         <f>A11*B11</f>
-        <v>44</v>
+        <v>63.6</v>
       </c>
       <c r="D11">
-        <v>20.13</v>
+        <v>19.55</v>
       </c>
       <c r="E11">
-        <v>1.95</v>
+        <v>2.9</v>
       </c>
       <c r="F11">
         <f>D11*E11</f>
-        <v>39.253499999999995</v>
+        <v>56.695</v>
       </c>
       <c r="G11">
         <f>D11/E11</f>
-        <v>10.323076923076922</v>
+        <v>6.7413793103448283</v>
       </c>
       <c r="H11">
-        <v>23.87</v>
+        <v>23.026741000000001</v>
       </c>
       <c r="I11">
-        <v>2.39</v>
+        <v>3.6208269999999998</v>
       </c>
       <c r="J11">
-        <v>20.61</v>
+        <v>19.864429000000001</v>
       </c>
       <c r="K11">
-        <v>2.06</v>
+        <v>3.1235710000000001</v>
       </c>
       <c r="L11">
         <f>J11/K11</f>
-        <v>10.004854368932039</v>
+        <v>6.3595253637583395</v>
       </c>
       <c r="M11">
         <f>(ABS(L11-G11)/G11)*100</f>
-        <v>3.0826327897790486</v>
+        <v>5.6643296424594229</v>
       </c>
       <c r="N11">
         <f>(F11/C11)*100</f>
-        <v>89.212499999999991</v>
+        <v>89.1430817610063</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B12">
-        <v>0.49</v>
+        <v>0.89</v>
       </c>
       <c r="C12">
         <f>A12*B12</f>
-        <v>24.5</v>
+        <v>53.4</v>
       </c>
       <c r="D12">
-        <v>20.83</v>
+        <v>19.95</v>
       </c>
       <c r="E12">
-        <v>0.98</v>
+        <v>2.36</v>
       </c>
       <c r="F12">
         <f>D12*E12</f>
-        <v>20.413399999999999</v>
+        <v>47.081999999999994</v>
       </c>
       <c r="G12">
         <f>D12/E12</f>
-        <v>21.255102040816325</v>
+        <v>8.453389830508474</v>
       </c>
       <c r="H12">
-        <v>23.88</v>
+        <v>23.024329999999999</v>
       </c>
       <c r="I12">
-        <v>1.31</v>
+        <v>2.9729100000000002</v>
       </c>
       <c r="J12">
-        <v>21.09</v>
+        <v>20.225322999999999</v>
       </c>
       <c r="K12">
-        <v>1.1499999999999999</v>
+        <v>2.6115010000000001</v>
       </c>
       <c r="L12">
         <f>J12/K12</f>
-        <v>18.339130434782611</v>
+        <v>7.7447119491817151</v>
       </c>
       <c r="M12">
         <f>(ABS(L12-G12)/G12)*100</f>
-        <v>13.718925462856651</v>
+        <v>8.3833573931386027</v>
       </c>
       <c r="N12">
         <f>(F12/C12)*100</f>
-        <v>83.32</v>
+        <v>88.168539325842687</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B13">
-        <v>0.12</v>
+        <v>0.71</v>
       </c>
       <c r="C13">
         <f>A13*B13</f>
-        <v>6</v>
+        <v>42.599999999999994</v>
       </c>
       <c r="D13">
-        <v>21.52</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="E13">
-        <v>5.2999999999999999E-2</v>
+        <v>1.84</v>
       </c>
       <c r="F13">
         <f>D13*E13</f>
-        <v>1.14056</v>
+        <v>37.444000000000003</v>
       </c>
       <c r="G13">
         <f>D13/E13</f>
-        <v>406.03773584905662</v>
+        <v>11.059782608695652</v>
       </c>
       <c r="H13">
-        <v>23.88</v>
+        <v>23.027667999999998</v>
       </c>
       <c r="I13">
-        <v>0.31</v>
+        <v>2.3288169999999999</v>
       </c>
       <c r="J13">
-        <v>21.55</v>
+        <v>20.597740000000002</v>
       </c>
       <c r="K13">
-        <v>0.28000000000000003</v>
+        <v>2.0830760000000001</v>
       </c>
       <c r="L13">
         <f>J13/K13</f>
-        <v>76.964285714285708</v>
+        <v>9.8881365826306862</v>
       </c>
       <c r="M13">
         <f>(ABS(L13-G13)/G13)*100</f>
-        <v>81.045041157727027</v>
+        <v>10.593752766385935</v>
       </c>
       <c r="N13">
         <f>(F13/C13)*100</f>
-        <v>19.009333333333334</v>
+        <v>87.896713615023486</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>60</v>
+      </c>
+      <c r="B14">
+        <v>0.27</v>
+      </c>
+      <c r="C14">
+        <f>A14*B14</f>
+        <v>16.200000000000003</v>
+      </c>
+      <c r="D14">
+        <v>21.06</v>
+      </c>
+      <c r="E14">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F14">
+        <f>D14*E14</f>
+        <v>11.583</v>
+      </c>
+      <c r="G14">
+        <f>D14/E14</f>
+        <v>38.290909090909082</v>
+      </c>
+      <c r="H14">
+        <v>23.027573</v>
+      </c>
+      <c r="I14">
+        <v>0.98389199999999999</v>
+      </c>
+      <c r="J14">
+        <v>21.222818</v>
+      </c>
+      <c r="K14">
+        <v>0.90678099999999995</v>
+      </c>
+      <c r="L14">
+        <f>J14/K14</f>
+        <v>23.404568468020393</v>
+      </c>
+      <c r="M14">
+        <f>(ABS(L14-G14)/G14)*100</f>
+        <v>38.876957942017007</v>
+      </c>
+      <c r="N14">
+        <f>(F14/C14)*100</f>
+        <v>71.499999999999986</v>
       </c>
     </row>
   </sheetData>
